--- a/data/trans_orig/MCS12_SP_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C021BDB2-327F-467D-84A2-3B5CEC1576FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E546BC1-653C-4424-86FD-AF047B86F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE87386C-071E-411E-ADE1-1BBF8C2CA82A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4570D5A4-AA15-4A75-8E17-D6CF5B1580C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="737">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Cuartil 4</t>
@@ -77,2157 +77,2151 @@
     <t>28,44%</t>
   </si>
   <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>Cuartil 3</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>Cuartil 2</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>Cuartil 3</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>Cuartil 2</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
     <t>23,27%</t>
   </si>
   <si>
@@ -2244,9 +2238,6 @@
   </si>
   <si>
     <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
   </si>
   <si>
     <t>27,28%</t>
@@ -2670,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15920490-D397-4F3D-9A6C-43DF9B5351EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AD2B9-AE99-48CE-8607-B5B9CA7C7B8B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3326,10 +3317,10 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>338</v>
@@ -3338,13 +3329,13 @@
         <v>363896</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3350,13 @@
         <v>334062</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>258</v>
@@ -3374,10 +3365,10 @@
         <v>271390</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>102</v>
@@ -3667,13 +3658,13 @@
         <v>178335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>199</v>
@@ -3682,13 +3673,13 @@
         <v>197068</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>369</v>
@@ -3697,13 +3688,13 @@
         <v>375403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3709,13 @@
         <v>118137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3733,13 +3724,13 @@
         <v>177601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>292</v>
@@ -3748,13 +3739,13 @@
         <v>295738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3801,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3822,13 +3813,13 @@
         <v>214868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -3837,13 +3828,13 @@
         <v>169106</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>395</v>
@@ -3852,13 +3843,13 @@
         <v>383974</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3864,13 @@
         <v>285804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>277</v>
@@ -3888,13 +3879,13 @@
         <v>288384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>585</v>
@@ -3903,13 +3894,13 @@
         <v>574189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3915,13 @@
         <v>234072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>280</v>
@@ -3939,13 +3930,13 @@
         <v>290145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>521</v>
@@ -3954,13 +3945,13 @@
         <v>524218</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3966,13 @@
         <v>207478</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>279</v>
@@ -3990,13 +3981,13 @@
         <v>290976</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="M27" s="7">
         <v>490</v>
@@ -4005,13 +3996,13 @@
         <v>498454</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4070,13 @@
         <v>775431</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>528</v>
@@ -4094,13 +4085,13 @@
         <v>541358</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>1293</v>
@@ -4109,13 +4100,13 @@
         <v>1316789</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,16 +4118,16 @@
         <v>1067</v>
       </c>
       <c r="D30" s="7">
-        <v>1085000</v>
+        <v>1084999</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>987</v>
@@ -4145,13 +4136,13 @@
         <v>1006941</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M30" s="7">
         <v>2054</v>
@@ -4160,13 +4151,13 @@
         <v>2091941</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,16 +4169,16 @@
         <v>787</v>
       </c>
       <c r="D31" s="7">
-        <v>805574</v>
+        <v>805573</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>914</v>
@@ -4196,13 +4187,13 @@
         <v>933761</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>1701</v>
@@ -4211,13 +4202,13 @@
         <v>1739334</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4223,13 @@
         <v>610539</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>868</v>
@@ -4247,13 +4238,13 @@
         <v>897137</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>1463</v>
@@ -4262,13 +4253,13 @@
         <v>1507677</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,7 +4271,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -4324,7 +4315,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4345,7 +4336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A974F-E913-4192-AE10-6351177996BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293243B-4CB5-42D7-A8F5-1346995F4105}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4362,7 +4353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4469,13 +4460,13 @@
         <v>25118</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4484,13 +4475,13 @@
         <v>14840</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4499,13 +4490,13 @@
         <v>39958</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4511,13 @@
         <v>20670</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4535,13 +4526,13 @@
         <v>20945</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4550,13 +4541,13 @@
         <v>41616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4562,13 @@
         <v>45338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -4586,13 +4577,13 @@
         <v>41445</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>83</v>
@@ -4601,13 +4592,13 @@
         <v>86783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4613,13 @@
         <v>24638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4637,13 +4628,13 @@
         <v>34676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -4652,13 +4643,13 @@
         <v>59314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4717,13 @@
         <v>174124</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>104</v>
@@ -4741,13 +4732,13 @@
         <v>109367</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -4756,13 +4747,13 @@
         <v>283491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4768,13 @@
         <v>133415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4792,13 +4783,13 @@
         <v>88355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>207</v>
@@ -4807,13 +4798,13 @@
         <v>221770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4819,13 @@
         <v>163426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -4843,13 +4834,13 @@
         <v>182447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -4858,13 +4849,13 @@
         <v>345873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4870,13 @@
         <v>116739</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>192</v>
@@ -4894,13 +4885,13 @@
         <v>204975</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
@@ -4909,13 +4900,13 @@
         <v>321715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4974,13 @@
         <v>280985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4998,13 +4989,13 @@
         <v>236685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>476</v>
@@ -5013,13 +5004,13 @@
         <v>517670</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5025,13 @@
         <v>249802</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H15" s="7">
         <v>180</v>
@@ -5055,7 +5046,7 @@
         <v>307</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -5064,13 +5055,13 @@
         <v>446164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5076,13 @@
         <v>254055</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -5100,13 +5091,13 @@
         <v>272745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>483</v>
@@ -5115,13 +5106,13 @@
         <v>526800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5127,13 @@
         <v>233105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -5151,13 +5142,13 @@
         <v>326392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -5166,13 +5157,13 @@
         <v>559497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5231,13 @@
         <v>273763</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -5255,13 +5246,13 @@
         <v>217440</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>442</v>
@@ -5270,13 +5261,13 @@
         <v>491203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5282,13 @@
         <v>139672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -5306,13 +5297,13 @@
         <v>99159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5324,10 +5315,10 @@
         <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5333,13 @@
         <v>190031</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H21" s="7">
         <v>202</v>
@@ -5357,13 +5348,13 @@
         <v>220016</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -5372,13 +5363,13 @@
         <v>410047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5384,13 @@
         <v>154157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -5408,10 +5399,10 @@
         <v>240560</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>353</v>
@@ -5429,7 +5420,7 @@
         <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,7 +5476,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5497,13 +5488,13 @@
         <v>243386</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -5512,13 +5503,13 @@
         <v>192934</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>420</v>
@@ -5527,13 +5518,13 @@
         <v>436320</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,7 +5569,7 @@
         <v>387549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>370</v>
@@ -5632,10 +5623,10 @@
         <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5641,13 @@
         <v>234940</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H27" s="7">
         <v>335</v>
@@ -5665,13 +5656,13 @@
         <v>356090</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M27" s="7">
         <v>559</v>
@@ -5680,7 +5671,7 @@
         <v>591030</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>385</v>
+        <v>145</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>386</v>
@@ -5784,13 +5775,13 @@
         <v>1768642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5796,13 @@
         <v>750210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>397</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="H30" s="7">
         <v>550</v>
@@ -5820,13 +5811,13 @@
         <v>585720</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>1254</v>
@@ -5835,13 +5826,13 @@
         <v>1335930</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5847,13 @@
         <v>915614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="H31" s="7">
         <v>966</v>
@@ -5871,13 +5862,13 @@
         <v>1038630</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="M31" s="7">
         <v>1825</v>
@@ -5886,10 +5877,10 @@
         <v>1954245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>408</v>
@@ -5907,13 +5898,13 @@
         <v>763578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>235</v>
+        <v>410</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="H32" s="7">
         <v>1072</v>
@@ -5922,13 +5913,13 @@
         <v>1162693</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>1782</v>
@@ -5937,13 +5928,13 @@
         <v>1926272</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,7 +5990,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6020,7 +6011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F5ECB-A8AD-4AA1-B980-7D5F3EEE9D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF61C6-A583-4684-9C3B-67B833E38072}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6037,7 +6028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6144,13 +6135,13 @@
         <v>31654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -6162,10 +6153,10 @@
         <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -6174,13 +6165,13 @@
         <v>56636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6186,13 @@
         <v>32453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>301</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -6210,13 +6201,13 @@
         <v>24177</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -6225,13 +6216,13 @@
         <v>56630</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6237,13 @@
         <v>30337</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6261,13 +6252,13 @@
         <v>31960</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -6276,13 +6267,13 @@
         <v>62297</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6288,13 @@
         <v>22102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -6315,10 +6306,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -6327,13 +6318,13 @@
         <v>54342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6392,13 @@
         <v>148652</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>445</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -6416,13 +6407,13 @@
         <v>123472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
         <v>263</v>
@@ -6431,13 +6422,13 @@
         <v>272124</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>311</v>
+        <v>455</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>451</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6443,13 @@
         <v>133852</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>457</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -6467,13 +6458,13 @@
         <v>119165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="M10" s="7">
         <v>243</v>
@@ -6482,13 +6473,13 @@
         <v>253017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6494,13 @@
         <v>174680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -6518,13 +6509,13 @@
         <v>165264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>336</v>
@@ -6533,13 +6524,13 @@
         <v>339944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>465</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6545,13 @@
         <v>101071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -6569,13 +6560,13 @@
         <v>151578</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M12" s="7">
         <v>248</v>
@@ -6584,13 +6575,13 @@
         <v>252648</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6649,13 @@
         <v>275959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>476</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -6673,13 +6664,13 @@
         <v>248768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>478</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>479</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>481</v>
@@ -6688,13 +6679,13 @@
         <v>524726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6700,13 @@
         <v>270924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>123</v>
+        <v>481</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>159</v>
+        <v>482</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="H15" s="7">
         <v>221</v>
@@ -6724,13 +6715,13 @@
         <v>230461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>483</v>
+        <v>303</v>
       </c>
       <c r="M15" s="7">
         <v>476</v>
@@ -6739,13 +6730,13 @@
         <v>501386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>486</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,10 +6754,10 @@
         <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -6775,13 +6766,13 @@
         <v>304665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>574</v>
@@ -6790,13 +6781,13 @@
         <v>613552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6802,13 @@
         <v>166661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>494</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -6826,7 +6817,7 @@
         <v>259020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>496</v>
@@ -6844,10 +6835,10 @@
         <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6906,13 @@
         <v>271954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -6930,13 +6921,13 @@
         <v>253922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M19" s="7">
         <v>493</v>
@@ -6945,13 +6936,13 @@
         <v>525876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +6957,13 @@
         <v>163391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -6981,13 +6972,13 @@
         <v>147599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -7020,10 +7011,10 @@
         <v>517</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>235</v>
+        <v>518</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>518</v>
+        <v>302</v>
       </c>
       <c r="H21" s="7">
         <v>169</v>
@@ -7038,7 +7029,7 @@
         <v>520</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="M21" s="7">
         <v>336</v>
@@ -7047,13 +7038,13 @@
         <v>357695</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7059,13 @@
         <v>141362</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -7083,10 +7074,10 @@
         <v>208641</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>529</v>
@@ -7098,13 +7089,13 @@
         <v>350002</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,7 +7151,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7172,13 +7163,13 @@
         <v>230896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -7187,13 +7178,13 @@
         <v>222134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>429</v>
+        <v>533</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -7202,13 +7193,13 @@
         <v>453030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>536</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,10 +7247,10 @@
         <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>544</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7265,13 @@
         <v>297457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -7289,10 +7280,10 @@
         <v>318103</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>548</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>549</v>
@@ -7307,10 +7298,10 @@
         <v>550</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7316,13 @@
         <v>209028</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H27" s="7">
         <v>271</v>
@@ -7340,13 +7331,13 @@
         <v>297537</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -7355,13 +7346,13 @@
         <v>506565</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>560</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>561</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7420,13 @@
         <v>959114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>563</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>816</v>
@@ -7444,13 +7435,13 @@
         <v>873279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>1721</v>
@@ -7459,13 +7450,13 @@
         <v>1832393</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>569</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7471,13 @@
         <v>800806</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>451</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H30" s="7">
         <v>693</v>
@@ -7495,13 +7486,13 @@
         <v>727406</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="M30" s="7">
         <v>1457</v>
@@ -7510,13 +7501,13 @@
         <v>1528212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7522,13 @@
         <v>994207</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>579</v>
+        <v>278</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H31" s="7">
         <v>950</v>
@@ -7546,13 +7537,13 @@
         <v>994841</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>581</v>
+        <v>314</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>476</v>
+        <v>576</v>
       </c>
       <c r="M31" s="7">
         <v>1899</v>
@@ -7561,13 +7552,13 @@
         <v>1989049</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7573,13 @@
         <v>640223</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H32" s="7">
         <v>879</v>
@@ -7597,13 +7588,13 @@
         <v>949015</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M32" s="7">
         <v>1492</v>
@@ -7612,13 +7603,13 @@
         <v>1589239</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,7 +7665,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7695,7 +7686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15CE3F-6CA9-47A0-AC46-BFC7EA81B900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F32F87-F355-4A6B-9927-7FA1970989F5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7712,7 +7703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7819,13 +7810,13 @@
         <v>34634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -7834,13 +7825,13 @@
         <v>45764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -7849,13 +7840,13 @@
         <v>80398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7861,13 @@
         <v>26281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -7885,13 +7876,13 @@
         <v>29624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>608</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -7900,13 +7891,13 @@
         <v>55905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>610</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>611</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7912,13 @@
         <v>17037</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -7936,13 +7927,13 @@
         <v>25046</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -7951,13 +7942,13 @@
         <v>42083</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>618</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7963,13 @@
         <v>21546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>619</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>620</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -7987,13 +7978,13 @@
         <v>28268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -8002,13 +7993,13 @@
         <v>49814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8067,13 @@
         <v>190513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="H9" s="7">
         <v>276</v>
@@ -8091,13 +8082,13 @@
         <v>178938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>616</v>
       </c>
       <c r="M9" s="7">
         <v>473</v>
@@ -8106,13 +8097,13 @@
         <v>369451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8118,13 @@
         <v>138010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>632</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>537</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>633</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -8142,13 +8133,13 @@
         <v>122571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>453</v>
+        <v>620</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -8157,13 +8148,13 @@
         <v>260581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>624</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8169,13 @@
         <v>102864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>448</v>
+        <v>625</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="H11" s="7">
         <v>233</v>
@@ -8193,13 +8184,13 @@
         <v>132785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M11" s="7">
         <v>350</v>
@@ -8208,13 +8199,13 @@
         <v>235649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>641</v>
+        <v>12</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8220,13 @@
         <v>115333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
         <v>284</v>
@@ -8244,13 +8235,13 @@
         <v>154328</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>635</v>
       </c>
       <c r="M12" s="7">
         <v>430</v>
@@ -8259,13 +8250,13 @@
         <v>269662</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8324,13 @@
         <v>329427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -8348,13 +8339,13 @@
         <v>285902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>642</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>564</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -8363,13 +8354,13 @@
         <v>615329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8384,13 +8375,13 @@
         <v>294619</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H15" s="7">
         <v>353</v>
@@ -8399,13 +8390,13 @@
         <v>252434</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>280</v>
+        <v>649</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>657</v>
+        <v>119</v>
       </c>
       <c r="M15" s="7">
         <v>583</v>
@@ -8414,13 +8405,13 @@
         <v>547053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,13 +8426,13 @@
         <v>231554</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>660</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>324</v>
@@ -8450,13 +8441,13 @@
         <v>219929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>653</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>654</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="M16" s="7">
         <v>568</v>
@@ -8465,13 +8456,13 @@
         <v>451483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,13 +8477,13 @@
         <v>178768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -8501,13 +8492,13 @@
         <v>295469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="M17" s="7">
         <v>673</v>
@@ -8516,13 +8507,13 @@
         <v>474238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>432</v>
+        <v>665</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8590,13 +8581,13 @@
         <v>236370</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>504</v>
+        <v>667</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -8605,13 +8596,13 @@
         <v>204488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>669</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>670</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -8620,13 +8611,13 @@
         <v>440857</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>673</v>
+        <v>578</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8641,13 +8632,13 @@
         <v>193908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -8656,13 +8647,13 @@
         <v>179392</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>676</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>678</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
@@ -8671,7 +8662,7 @@
         <v>373300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>679</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>680</v>
@@ -8692,13 +8683,13 @@
         <v>137099</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>682</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -8707,13 +8698,13 @@
         <v>175727</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>473</v>
+        <v>685</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>394</v>
+        <v>687</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -8722,13 +8713,13 @@
         <v>312826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8743,13 +8734,13 @@
         <v>158953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>688</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>691</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>689</v>
+        <v>567</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -8758,13 +8749,13 @@
         <v>312894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M22" s="7">
         <v>435</v>
@@ -8773,13 +8764,13 @@
         <v>471847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8835,7 +8826,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8847,13 +8838,13 @@
         <v>298606</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H24" s="7">
         <v>366</v>
@@ -8862,13 +8853,13 @@
         <v>272168</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>697</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M24" s="7">
         <v>655</v>
@@ -8877,13 +8868,13 @@
         <v>570774</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>572</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8898,13 +8889,13 @@
         <v>226006</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>701</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>702</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>309</v>
@@ -8913,13 +8904,13 @@
         <v>231346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>703</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>704</v>
       </c>
       <c r="M25" s="7">
         <v>541</v>
@@ -8928,13 +8919,13 @@
         <v>457352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>704</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>705</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>706</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8949,13 +8940,13 @@
         <v>241143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>708</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
         <v>404</v>
@@ -8964,13 +8955,13 @@
         <v>300068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>710</v>
+        <v>482</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>659</v>
@@ -8979,13 +8970,13 @@
         <v>541212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>711</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,13 +8991,13 @@
         <v>195489</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>439</v>
+        <v>710</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -9015,13 +9006,13 @@
         <v>340432</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>715</v>
+        <v>328</v>
       </c>
       <c r="M27" s="7">
         <v>700</v>
@@ -9030,13 +9021,13 @@
         <v>535921</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>713</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,13 +9095,13 @@
         <v>1089551</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H29" s="7">
         <v>1322</v>
@@ -9119,13 +9110,13 @@
         <v>987259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>719</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>593</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>381</v>
+        <v>717</v>
       </c>
       <c r="M29" s="7">
         <v>2328</v>
@@ -9134,13 +9125,13 @@
         <v>2076810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>721</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,13 +9146,13 @@
         <v>878824</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H30" s="7">
         <v>1176</v>
@@ -9170,13 +9161,13 @@
         <v>815366</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>280</v>
+        <v>649</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>726</v>
+        <v>236</v>
       </c>
       <c r="M30" s="7">
         <v>2008</v>
@@ -9185,13 +9176,13 @@
         <v>1694191</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>711</v>
+        <v>534</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,13 +9197,13 @@
         <v>729697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>435</v>
+        <v>725</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>726</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H31" s="7">
         <v>1253</v>
@@ -9221,13 +9212,13 @@
         <v>853556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="M31" s="7">
         <v>2021</v>
@@ -9236,13 +9227,13 @@
         <v>1583252</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,13 +9248,13 @@
         <v>670090</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H32" s="7">
         <v>1580</v>
@@ -9272,13 +9263,13 @@
         <v>1131391</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>735</v>
+        <v>579</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M32" s="7">
         <v>2332</v>
@@ -9287,13 +9278,13 @@
         <v>1801481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9349,7 +9340,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/MCS12_SP_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E546BC1-653C-4424-86FD-AF047B86F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D407B3-5D19-4908-A23B-7E1F23D1BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4570D5A4-AA15-4A75-8E17-D6CF5B1580C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C27C081-62AA-40CD-9325-D8F5EAAB6973}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,2179 +77,2179 @@
     <t>28,44%</t>
   </si>
   <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>Cuartil 3</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>Cuartil 2</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>Cuartil 3</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>Cuartil 2</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>37,59%</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AD2B9-AE99-48CE-8607-B5B9CA7C7B8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D182626-4398-480A-8924-174AC1F395E8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3317,10 +3317,10 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>338</v>
@@ -3329,13 +3329,13 @@
         <v>363896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3350,13 @@
         <v>334062</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>258</v>
@@ -3365,13 +3365,13 @@
         <v>271390</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>573</v>
@@ -3380,13 +3380,13 @@
         <v>605452</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3401,13 @@
         <v>226677</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>245</v>
@@ -3416,13 +3416,13 @@
         <v>259065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>456</v>
@@ -3431,7 +3431,7 @@
         <v>485742</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>113</v>
@@ -3574,10 +3574,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>295</v>
@@ -3586,13 +3586,13 @@
         <v>300279</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3607,13 @@
         <v>201161</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -3622,13 +3622,13 @@
         <v>189770</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>381</v>
@@ -3637,13 +3637,13 @@
         <v>390930</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3658,13 @@
         <v>178335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>199</v>
@@ -3673,13 +3673,13 @@
         <v>197068</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>369</v>
@@ -3688,13 +3688,13 @@
         <v>375403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3709,13 @@
         <v>118137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3724,13 +3724,13 @@
         <v>177601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>292</v>
@@ -3739,13 +3739,13 @@
         <v>295738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,7 +3801,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3813,13 +3813,13 @@
         <v>214868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -3828,13 +3828,13 @@
         <v>169106</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>395</v>
@@ -3843,13 +3843,13 @@
         <v>383974</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3864,13 @@
         <v>285804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>277</v>
@@ -3879,13 +3879,13 @@
         <v>288384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>585</v>
@@ -3894,13 +3894,13 @@
         <v>574189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3915,13 @@
         <v>234072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>280</v>
@@ -3930,13 +3930,13 @@
         <v>290145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>521</v>
@@ -3945,13 +3945,13 @@
         <v>524218</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3966,13 @@
         <v>207478</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>279</v>
@@ -3981,13 +3981,13 @@
         <v>290976</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>490</v>
@@ -3996,13 +3996,13 @@
         <v>498454</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4070,13 @@
         <v>775431</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>528</v>
@@ -4085,13 +4085,13 @@
         <v>541358</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>1293</v>
@@ -4100,13 +4100,13 @@
         <v>1316789</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,16 +4118,16 @@
         <v>1067</v>
       </c>
       <c r="D30" s="7">
-        <v>1084999</v>
+        <v>1085000</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>987</v>
@@ -4136,28 +4136,28 @@
         <v>1006941</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>2054</v>
       </c>
       <c r="N30" s="7">
-        <v>2091941</v>
+        <v>2091940</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,16 +4169,16 @@
         <v>787</v>
       </c>
       <c r="D31" s="7">
-        <v>805573</v>
+        <v>805574</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>914</v>
@@ -4187,13 +4187,13 @@
         <v>933761</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>1701</v>
@@ -4202,13 +4202,13 @@
         <v>1739334</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4223,13 @@
         <v>610539</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>868</v>
@@ -4238,28 +4238,28 @@
         <v>897137</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>1463</v>
       </c>
       <c r="N32" s="7">
-        <v>1507677</v>
+        <v>1507676</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4271,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -4301,7 +4301,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293243B-4CB5-42D7-A8F5-1346995F4105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3915C-6EAF-432A-99C1-2CAE5EFC62BA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4353,7 +4353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4460,13 +4460,13 @@
         <v>25118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4475,13 +4475,13 @@
         <v>14840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4490,13 +4490,13 @@
         <v>39958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4511,13 @@
         <v>20670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4526,13 +4526,13 @@
         <v>20945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4541,13 +4541,13 @@
         <v>41616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4562,13 @@
         <v>45338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -4577,13 +4577,13 @@
         <v>41445</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>83</v>
@@ -4592,13 +4592,13 @@
         <v>86783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4613,13 @@
         <v>24638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4628,13 +4628,13 @@
         <v>34676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -4643,13 +4643,13 @@
         <v>59314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4717,13 @@
         <v>174124</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>104</v>
@@ -4732,13 +4732,13 @@
         <v>109367</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -4747,13 +4747,13 @@
         <v>283491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4768,13 @@
         <v>133415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4783,13 +4783,13 @@
         <v>88355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>207</v>
@@ -4798,13 +4798,13 @@
         <v>221770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4819,13 @@
         <v>163426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -4834,13 +4834,13 @@
         <v>182447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -4849,13 +4849,13 @@
         <v>345873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4870,13 @@
         <v>116739</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>192</v>
@@ -4885,13 +4885,13 @@
         <v>204975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
@@ -4900,13 +4900,13 @@
         <v>321715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4974,13 @@
         <v>280985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4989,13 +4989,13 @@
         <v>236685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>476</v>
@@ -5004,13 +5004,13 @@
         <v>517670</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5025,13 @@
         <v>249802</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H15" s="7">
         <v>180</v>
@@ -5040,13 +5040,13 @@
         <v>196362</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -5055,13 +5055,13 @@
         <v>446164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5076,13 @@
         <v>254055</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -5091,13 +5091,13 @@
         <v>272745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>483</v>
@@ -5106,13 +5106,13 @@
         <v>526800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5127,13 @@
         <v>233105</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -5142,13 +5142,13 @@
         <v>326392</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -5157,13 +5157,13 @@
         <v>559497</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5231,13 @@
         <v>273763</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -5246,13 +5246,13 @@
         <v>217440</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>442</v>
@@ -5261,13 +5261,13 @@
         <v>491203</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5282,13 @@
         <v>139672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -5297,13 +5297,13 @@
         <v>99159</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5312,13 +5312,13 @@
         <v>238831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,10 +5336,10 @@
         <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>202</v>
@@ -5348,13 +5348,13 @@
         <v>220016</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -5363,13 +5363,13 @@
         <v>410047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5384,13 @@
         <v>154157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -5399,13 +5399,13 @@
         <v>240560</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
@@ -5414,13 +5414,13 @@
         <v>394716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,7 +5476,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5488,13 +5488,13 @@
         <v>243386</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -5503,13 +5503,13 @@
         <v>192934</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>420</v>
@@ -5518,13 +5518,13 @@
         <v>436320</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5539,13 @@
         <v>206650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
         <v>176</v>
@@ -5554,13 +5554,13 @@
         <v>180899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>377</v>
@@ -5569,13 +5569,13 @@
         <v>387549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5590,13 @@
         <v>262763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>308</v>
@@ -5605,13 +5605,13 @@
         <v>321978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>557</v>
@@ -5620,13 +5620,13 @@
         <v>584741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5641,13 @@
         <v>234940</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H27" s="7">
         <v>335</v>
@@ -5656,13 +5656,13 @@
         <v>356090</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M27" s="7">
         <v>559</v>
@@ -5671,13 +5671,13 @@
         <v>591030</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>386</v>
+        <v>238</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5745,13 @@
         <v>997376</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>710</v>
@@ -5760,13 +5760,13 @@
         <v>771265</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>391</v>
+        <v>71</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M29" s="7">
         <v>1646</v>
@@ -5775,13 +5775,13 @@
         <v>1768642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5796,13 @@
         <v>750210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="H30" s="7">
         <v>550</v>
@@ -5811,13 +5811,13 @@
         <v>585720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>1254</v>
@@ -5826,13 +5826,13 @@
         <v>1335930</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>401</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5847,13 @@
         <v>915614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>403</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H31" s="7">
         <v>966</v>
@@ -5862,13 +5862,13 @@
         <v>1038630</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M31" s="7">
         <v>1825</v>
@@ -5877,13 +5877,13 @@
         <v>1954245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>408</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5898,13 @@
         <v>763578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H32" s="7">
         <v>1072</v>
@@ -5913,13 +5913,13 @@
         <v>1162693</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M32" s="7">
         <v>1782</v>
@@ -5928,13 +5928,13 @@
         <v>1926272</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6011,7 +6011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF61C6-A583-4684-9C3B-67B833E38072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDE6219-895F-49F5-A6F5-675FE36E502B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6028,7 +6028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6135,13 +6135,13 @@
         <v>31654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -6150,10 +6150,10 @@
         <v>24983</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>421</v>
+        <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>422</v>
@@ -6165,13 +6165,13 @@
         <v>56636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,7 +6216,7 @@
         <v>56630</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>431</v>
@@ -6237,13 +6237,13 @@
         <v>30337</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6252,13 +6252,13 @@
         <v>31960</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -6267,13 +6267,13 @@
         <v>62297</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6288,13 @@
         <v>22102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -6306,10 +6306,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -6318,13 +6318,13 @@
         <v>54342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6392,13 @@
         <v>148652</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>446</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -6407,13 +6407,13 @@
         <v>123472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M9" s="7">
         <v>263</v>
@@ -6422,13 +6422,13 @@
         <v>272124</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>454</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6443,13 @@
         <v>133852</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -6458,13 +6458,13 @@
         <v>119165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>243</v>
@@ -6473,13 +6473,13 @@
         <v>253017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6494,13 @@
         <v>174680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -6509,13 +6509,13 @@
         <v>165264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>336</v>
@@ -6524,13 +6524,13 @@
         <v>339944</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,10 +6545,10 @@
         <v>101071</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>470</v>
@@ -6563,10 +6563,10 @@
         <v>471</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M12" s="7">
         <v>248</v>
@@ -6575,13 +6575,13 @@
         <v>252648</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6649,13 @@
         <v>275959</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -6667,10 +6667,10 @@
         <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>481</v>
@@ -6679,13 +6679,13 @@
         <v>524726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>482</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6700,13 @@
         <v>270924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>157</v>
+        <v>486</v>
       </c>
       <c r="H15" s="7">
         <v>221</v>
@@ -6715,13 +6715,13 @@
         <v>230461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>303</v>
+        <v>489</v>
       </c>
       <c r="M15" s="7">
         <v>476</v>
@@ -6730,13 +6730,13 @@
         <v>501386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6751,13 @@
         <v>308887</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -6766,13 +6766,13 @@
         <v>304665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>574</v>
@@ -6781,13 +6781,13 @@
         <v>613552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6802,13 @@
         <v>166661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -6817,13 +6817,13 @@
         <v>259020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -6832,13 +6832,13 @@
         <v>425680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>500</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6906,13 @@
         <v>271954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>502</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -6921,13 +6921,13 @@
         <v>253922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M19" s="7">
         <v>493</v>
@@ -6936,13 +6936,13 @@
         <v>525876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6957,13 @@
         <v>163391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>510</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -6972,13 +6972,13 @@
         <v>147599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -6987,13 +6987,13 @@
         <v>310990</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7008,13 @@
         <v>182846</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="H21" s="7">
         <v>169</v>
@@ -7023,13 +7023,13 @@
         <v>174849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>519</v>
+        <v>192</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M21" s="7">
         <v>336</v>
@@ -7038,13 +7038,13 @@
         <v>357695</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7059,13 @@
         <v>141362</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -7074,13 +7074,13 @@
         <v>208641</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -7089,13 +7089,13 @@
         <v>350002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,7 +7151,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7163,13 +7163,13 @@
         <v>230896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -7178,13 +7178,13 @@
         <v>222134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>366</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -7193,13 +7193,13 @@
         <v>453030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7214,13 @@
         <v>200185</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>537</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>539</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -7229,13 +7229,13 @@
         <v>206005</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M25" s="7">
         <v>396</v>
@@ -7244,13 +7244,13 @@
         <v>406190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>545</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7265,13 @@
         <v>297457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -7280,13 +7280,13 @@
         <v>318103</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>548</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>591</v>
@@ -7295,13 +7295,13 @@
         <v>615560</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7316,13 @@
         <v>209028</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>552</v>
+        <v>117</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>553</v>
+        <v>420</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H27" s="7">
         <v>271</v>
@@ -7331,13 +7331,13 @@
         <v>297537</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>556</v>
+        <v>355</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -7346,13 +7346,13 @@
         <v>506565</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>457</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7420,13 @@
         <v>959114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>108</v>
+        <v>558</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H29" s="7">
         <v>816</v>
@@ -7435,13 +7435,13 @@
         <v>873279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>562</v>
+        <v>74</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
         <v>1721</v>
@@ -7450,13 +7450,13 @@
         <v>1832393</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7471,13 @@
         <v>800806</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>567</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>693</v>
@@ -7486,13 +7486,13 @@
         <v>727406</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>568</v>
+        <v>399</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>569</v>
+        <v>367</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M30" s="7">
         <v>1457</v>
@@ -7501,13 +7501,13 @@
         <v>1528212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>572</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7522,13 @@
         <v>994207</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>278</v>
+        <v>568</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H31" s="7">
         <v>950</v>
@@ -7537,13 +7537,13 @@
         <v>994841</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>314</v>
+        <v>570</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>575</v>
+        <v>397</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M31" s="7">
         <v>1899</v>
@@ -7552,13 +7552,13 @@
         <v>1989049</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>579</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7573,13 @@
         <v>640223</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H32" s="7">
         <v>879</v>
@@ -7588,13 +7588,13 @@
         <v>949015</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M32" s="7">
         <v>1492</v>
@@ -7603,13 +7603,13 @@
         <v>1589239</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,7 +7665,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7686,7 +7686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F32F87-F355-4A6B-9927-7FA1970989F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D098C88E-4AFE-4C11-979F-22191E0863C9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7703,7 +7703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7810,13 +7810,13 @@
         <v>34634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -7825,13 +7825,13 @@
         <v>45764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -7840,13 +7840,13 @@
         <v>80398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7861,13 @@
         <v>26281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -7876,13 +7876,13 @@
         <v>29624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>462</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -7891,13 +7891,13 @@
         <v>55905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>594</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>53</v>
+        <v>595</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,13 +7912,13 @@
         <v>17037</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>584</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -7927,13 +7927,13 @@
         <v>25046</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -7942,13 +7942,13 @@
         <v>42083</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7963,13 @@
         <v>21546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>603</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>604</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -7978,13 +7978,13 @@
         <v>28268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -7993,13 +7993,13 @@
         <v>49814</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8067,13 @@
         <v>190513</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H9" s="7">
         <v>276</v>
@@ -8082,10 +8082,10 @@
         <v>178938</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>616</v>
@@ -8118,13 +8118,13 @@
         <v>138010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>551</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>621</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -8133,13 +8133,13 @@
         <v>122571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>620</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>622</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -8148,13 +8148,13 @@
         <v>260581</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8199,13 @@
         <v>235649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>12</v>
+        <v>631</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>632</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>631</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8220,13 @@
         <v>115333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>485</v>
+        <v>635</v>
       </c>
       <c r="H12" s="7">
         <v>284</v>
@@ -8235,13 +8235,13 @@
         <v>154328</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M12" s="7">
         <v>430</v>
@@ -8250,13 +8250,13 @@
         <v>269662</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8324,13 @@
         <v>329427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -8339,13 +8339,13 @@
         <v>285902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>618</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -8357,10 +8357,10 @@
         <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>643</v>
+        <v>558</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8375,13 @@
         <v>294619</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H15" s="7">
         <v>353</v>
@@ -8390,13 +8390,13 @@
         <v>252434</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="M15" s="7">
         <v>583</v>
@@ -8405,13 +8405,13 @@
         <v>547053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>412</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8426,13 @@
         <v>231554</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>655</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>652</v>
+        <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="H16" s="7">
         <v>324</v>
@@ -8441,13 +8441,13 @@
         <v>219929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>654</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="M16" s="7">
         <v>568</v>
@@ -8456,13 +8456,13 @@
         <v>451483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8477,13 @@
         <v>178768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -8492,13 +8492,13 @@
         <v>295469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="M17" s="7">
         <v>673</v>
@@ -8507,13 +8507,13 @@
         <v>474238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>666</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8584,10 +8584,10 @@
         <v>617</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>667</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -8596,13 +8596,13 @@
         <v>204488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>559</v>
+        <v>670</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>669</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>670</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -8611,7 +8611,7 @@
         <v>440857</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>671</v>
@@ -8635,10 +8635,10 @@
         <v>673</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>674</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>675</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -8647,13 +8647,13 @@
         <v>179392</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>678</v>
+        <v>635</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
@@ -8662,13 +8662,13 @@
         <v>373300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>679</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>681</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,13 +8683,13 @@
         <v>137099</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -8698,13 +8698,13 @@
         <v>175727</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>685</v>
+        <v>318</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -8713,13 +8713,13 @@
         <v>312826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,13 +8734,13 @@
         <v>158953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>685</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>567</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -8749,13 +8749,13 @@
         <v>312894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="M22" s="7">
         <v>435</v>
@@ -8764,13 +8764,13 @@
         <v>471847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>690</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8826,7 +8826,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8838,13 +8838,13 @@
         <v>298606</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H24" s="7">
         <v>366</v>
@@ -8853,13 +8853,13 @@
         <v>272168</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M24" s="7">
         <v>655</v>
@@ -8868,13 +8868,13 @@
         <v>570774</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>696</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,13 +8889,13 @@
         <v>226006</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>697</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>699</v>
       </c>
       <c r="H25" s="7">
         <v>309</v>
@@ -8904,13 +8904,13 @@
         <v>231346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>426</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>703</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="M25" s="7">
         <v>541</v>
@@ -8919,13 +8919,13 @@
         <v>457352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>470</v>
+        <v>701</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8940,13 +8940,13 @@
         <v>241143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>703</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>705</v>
       </c>
       <c r="H26" s="7">
         <v>404</v>
@@ -8955,25 +8955,25 @@
         <v>300068</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>659</v>
       </c>
       <c r="N26" s="7">
-        <v>541212</v>
+        <v>541211</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>708</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>709</v>
@@ -8997,7 +8997,7 @@
         <v>711</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>592</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -9009,10 +9009,10 @@
         <v>712</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>418</v>
+        <v>713</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>328</v>
+        <v>714</v>
       </c>
       <c r="M27" s="7">
         <v>700</v>
@@ -9021,13 +9021,13 @@
         <v>535921</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>713</v>
+        <v>656</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>2555</v>
       </c>
       <c r="N28" s="7">
-        <v>2105259</v>
+        <v>2105258</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -9095,13 +9095,13 @@
         <v>1089551</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H29" s="7">
         <v>1322</v>
@@ -9110,13 +9110,13 @@
         <v>987259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>718</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>717</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>2328</v>
@@ -9125,13 +9125,13 @@
         <v>2076810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>720</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9146,13 +9146,13 @@
         <v>878824</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>720</v>
+        <v>235</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>721</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>596</v>
+        <v>722</v>
       </c>
       <c r="H30" s="7">
         <v>1176</v>
@@ -9161,13 +9161,13 @@
         <v>815366</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>2008</v>
@@ -9176,13 +9176,13 @@
         <v>1694191</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>534</v>
+        <v>725</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>723</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9197,13 +9197,13 @@
         <v>729697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>725</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>726</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>727</v>
+        <v>653</v>
       </c>
       <c r="H31" s="7">
         <v>1253</v>
@@ -9212,13 +9212,13 @@
         <v>853556</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M31" s="7">
         <v>2021</v>
@@ -9227,13 +9227,13 @@
         <v>1583252</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>71</v>
+        <v>729</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>730</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9248,13 +9248,13 @@
         <v>670090</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="H32" s="7">
         <v>1580</v>
@@ -9263,13 +9263,13 @@
         <v>1131391</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>579</v>
+        <v>735</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>733</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="M32" s="7">
         <v>2332</v>
@@ -9278,13 +9278,13 @@
         <v>1801481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>345</v>
+        <v>600</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>735</v>
+        <v>690</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>736</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9340,7 +9340,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
